--- a/Présentation stage/ordre des étapes Raspberry depuis initialisation.xlsx
+++ b/Présentation stage/ordre des étapes Raspberry depuis initialisation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>commande</t>
   </si>
@@ -122,13 +122,52 @@
   </si>
   <si>
     <t>tout un bordel pas possible de configurations et d'installations  pour que ça fonctionne</t>
+  </si>
+  <si>
+    <t>dans ping au lieu du premier mettre</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>import  subprocess32,re</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+host = 'jetbrains.com'
+ping_output = subprocess32.check_output(["ping", host, "-c 5"])
+for line in ping_output.split('\n'):
+    if re.match("\d+ bytes from", line):
+        print(line)</t>
+    </r>
+  </si>
+  <si>
+    <t>_____________________________________________________________</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIN CAR PAS ASSEZ DE TEMPS </t>
+  </si>
+  <si>
+    <t>https://www.jetbrains.com/help/pycharm/remote-development-on-raspberry-pi.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +180,21 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -166,18 +220,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -192,8 +241,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -495,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,95 +569,95 @@
     <col min="4" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="3" t="s">
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="3" t="s">
+    <row r="11" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5" t="s">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5" t="s">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="3" t="s">
+    <row r="15" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -610,31 +672,31 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="7"/>
+      <c r="C17" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:3" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -643,66 +705,100 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="3" t="s">
+    <row r="23" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+    </row>
+    <row r="31" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+    </row>
+    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A34:C34"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B35" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>